--- a/bazy_danych/produkty_w_sklepie.xlsx
+++ b/bazy_danych/produkty_w_sklepie.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>NaN</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>Waga</t>
+  </si>
+  <si>
+    <t>Kalorie</t>
   </si>
 </sst>
 </file>
@@ -944,7 +944,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,7 +954,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
@@ -970,348 +970,348 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>2.8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10.99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>400</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9.99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>2.8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="B5">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>500</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>6.49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>10.99</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>4.49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>500</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>3.59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>3.29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>8.99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>4.99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>400</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
+      <c r="E11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>5.29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>400</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>7.99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>500</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
         <v>9.99</v>
       </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>500</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>5.29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>6.49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>4.49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>3.59</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>3.29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="E15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>4.79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>400</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>8.99</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
+      <c r="B17">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>400</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2.99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>400</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>4.99</v>
       </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>350</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>4.99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>350</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7.99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>400</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>5.29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>7.99</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>9.99</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>5.29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <v>4.79</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18">
-        <v>2.99</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>4.99</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20">
-        <v>4.99</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21">
-        <v>7.99</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
       <c r="E21">
-        <v>400</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
